--- a/biology/Médecine/TKM-Ebola/TKM-Ebola.xlsx
+++ b/biology/Médecine/TKM-Ebola/TKM-Ebola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le TKM-Ebola est un médicament antiviral expérimental développé contre la maladie à virus Ebola[1] par la société canadienne Tekmira Pharmaceuticals, basée à Vancouver[2].
-Il s'agit d'une combinaison de trois petits ARN interférents ciblant trois protéines du virus Ebola — l'ARN polymérase ARN-dépendante, la protéine VP24 associée à l'enveloppe virale et la protéine VP35, cofacteur de l'ARN polymérase — associés avec des nanoparticules lipidiques[1].
-La FDA américaine a partiellement levé, en août 2014, la suspension des essais cliniques sur ce médicament[3], qui avait donné lieu à des effets indésirables rappelant les symptômes de la grippe[4], afin de permettre son utilisation éventuellement dans le cadre de l'épidémie sévissant en Afrique de l'Ouest depuis la fin 2013.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le TKM-Ebola est un médicament antiviral expérimental développé contre la maladie à virus Ebola par la société canadienne Tekmira Pharmaceuticals, basée à Vancouver.
+Il s'agit d'une combinaison de trois petits ARN interférents ciblant trois protéines du virus Ebola — l'ARN polymérase ARN-dépendante, la protéine VP24 associée à l'enveloppe virale et la protéine VP35, cofacteur de l'ARN polymérase — associés avec des nanoparticules lipidiques.
+La FDA américaine a partiellement levé, en août 2014, la suspension des essais cliniques sur ce médicament, qui avait donné lieu à des effets indésirables rappelant les symptômes de la grippe, afin de permettre son utilisation éventuellement dans le cadre de l'épidémie sévissant en Afrique de l'Ouest depuis la fin 2013.
 </t>
         </is>
       </c>
